--- a/src/main/resources/public/FourthYear.xlsx
+++ b/src/main/resources/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="28">
   <si>
     <t>CSE</t>
   </si>
@@ -443,27 +443,27 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -472,26 +472,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -505,25 +506,25 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8"/>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8"/>
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8"/>
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -533,25 +534,27 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -560,30 +563,27 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -603,27 +603,26 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -632,28 +631,29 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -662,25 +662,27 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -690,29 +692,27 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22"/>
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -725,15 +725,15 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>17</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
@@ -761,25 +761,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28"/>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C28"/>
       <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -789,28 +792,25 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30"/>
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30"/>
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30"/>
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
       <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -820,28 +820,29 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32"/>
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -853,27 +854,24 @@
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
       <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
       <c r="H34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -885,22 +883,24 @@
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
@@ -931,17 +931,18 @@
       <c r="E40" t="s">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
+      <c r="F40"/>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -950,28 +951,29 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
+      <c r="A42"/>
       <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C42"/>
       <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42"/>
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
       <c r="H42" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -981,26 +983,27 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B44"/>
       <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44"/>
+        <v>3</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -1009,18 +1012,18 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D46"/>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
@@ -1042,25 +1045,22 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48"/>
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
       <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48"/>
-      <c r="J48" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/FourthYear.xlsx
+++ b/src/main/resources/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="45">
   <si>
     <t>CSE</t>
   </si>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t xml:space="preserve">EE894   /   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU801  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS891  /  </t>
+  </si>
+  <si>
+    <t>CS802A  /  CS802B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT802A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE802A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE802A  /  </t>
   </si>
 </sst>
 </file>
@@ -443,27 +494,26 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -473,27 +523,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6"/>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -502,29 +550,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -534,27 +579,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10"/>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -564,26 +607,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12"/>
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -603,26 +645,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16"/>
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -632,28 +673,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18"/>
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -662,28 +700,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20"/>
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -692,27 +728,26 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -721,28 +756,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24"/>
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -761,29 +794,26 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28"/>
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28"/>
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
       <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28"/>
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -793,25 +823,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -821,28 +851,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32"/>
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="s">
-        <v>3</v>
+      <c r="G32" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -852,26 +879,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34"/>
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -881,27 +907,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36"/>
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36"/>
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -921,28 +945,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40"/>
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
       <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40"/>
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
       <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -951,29 +972,26 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42"/>
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42"/>
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
       <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -983,27 +1001,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44"/>
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44"/>
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -1013,26 +1029,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46"/>
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1042,25 +1057,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/FourthYear.xlsx
+++ b/src/main/resources/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="45">
   <si>
     <t>CSE</t>
   </si>
@@ -495,25 +495,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -523,25 +523,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +554,22 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -582,22 +582,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -610,22 +610,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -645,25 +645,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -673,25 +673,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -701,25 +701,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -732,22 +732,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -757,25 +757,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -795,25 +795,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -826,22 +826,22 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -851,25 +851,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -879,7 +879,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -888,16 +888,16 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -945,25 +945,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -973,25 +973,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -1001,25 +1001,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -1029,25 +1029,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1057,25 +1057,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/FourthYear.xlsx
+++ b/src/main/resources/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="91">
   <si>
     <t>CSE</t>
   </si>
@@ -154,6 +154,144 @@
   </si>
   <si>
     <t xml:space="preserve">EE802A  /  </t>
+  </si>
+  <si>
+    <t>CS894[SMa]  /  []</t>
+  </si>
+  <si>
+    <t>CS891[DC, SMa]  /  []</t>
+  </si>
+  <si>
+    <t>CS801A[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>CS802A[BDu]  /  CS802B[BDu]</t>
+  </si>
+  <si>
+    <t>HU801[KB]  /  []</t>
+  </si>
+  <si>
+    <t>CS894[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>IT801A[RCh]  /  []</t>
+  </si>
+  <si>
+    <t>IT894[AB]  /  []</t>
+  </si>
+  <si>
+    <t>IT891[KDa, SU]  /  []</t>
+  </si>
+  <si>
+    <t>IT802A[KDa]  /  []</t>
+  </si>
+  <si>
+    <t>IT894[AKS]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[PC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE891[AnC, BC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE802A[ArD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE801A[DK]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[RND]  /  []</t>
+  </si>
+  <si>
+    <t>ECE891[SD, BC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[TD]  /  []</t>
+  </si>
+  <si>
+    <t>EE802A[KR]  /  []</t>
+  </si>
+  <si>
+    <t>EE894[MB]  /  []</t>
+  </si>
+  <si>
+    <t>EE801A[ASG]  /  []</t>
+  </si>
+  <si>
+    <t>EE891[PG, IB]  /  []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU801[KB]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS801A[SSK]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS894[MDu]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS891[DC, SMa]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS894[SMa]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS894[GY]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT802A[KDa]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT894[AKS]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT801A[RCh]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT891[KDa, SU]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT894[AB]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT891[KDa, AGh]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT894[RG]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE801A[DK]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE894[TD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE894[RND]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE802A[ArD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE891[SD, AnC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE891[AnC, BC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE894[PC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE801A[ASG]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE894[MB]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE802A[KR]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE891[PG, IB]  /  </t>
   </si>
 </sst>
 </file>
@@ -495,10 +633,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -507,13 +645,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -523,25 +661,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -551,25 +689,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -579,25 +717,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -610,22 +748,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -645,22 +783,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -673,25 +811,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -701,25 +839,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -729,25 +867,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -757,25 +895,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -795,25 +933,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -823,25 +961,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -851,25 +989,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -879,25 +1017,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -907,25 +1045,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -945,25 +1083,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -973,25 +1111,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1001,16 +1139,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -1019,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -1029,25 +1167,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1057,25 +1195,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
